--- a/data/analysis/social_media_analytics/pivot_tables/subject_matter_simpl/museum_activity_groups__var1-subject_matter_simpl.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/subject_matter_simpl/museum_activity_groups__var1-subject_matter_simpl.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>msg_count_twitter</t>
+  </si>
+  <si>
+    <t>msg_count_twitter_engage</t>
   </si>
   <si>
     <t>msg_count_facebook</t>
@@ -482,13 +485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AN24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:40">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -520,105 +523,159 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
+      <c r="AB1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:40">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="AN2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:40">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:40">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>192474</v>
+        <v>117960</v>
       </c>
       <c r="C4">
-        <v>2115.1</v>
+        <v>1296.3</v>
       </c>
       <c r="D4">
-        <v>6664.7</v>
+        <v>5107.6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -627,37 +684,37 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>268</v>
+        <v>156</v>
       </c>
       <c r="H4">
-        <v>1558</v>
+        <v>936.5</v>
       </c>
       <c r="I4">
-        <v>56317</v>
+        <v>47580</v>
       </c>
       <c r="J4">
         <v>91</v>
       </c>
       <c r="K4">
-        <v>3155.3</v>
+        <v>2069.5</v>
       </c>
       <c r="L4">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>67</v>
+        <v>62.6</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O4">
-        <v>27313</v>
+        <v>37851</v>
       </c>
       <c r="P4">
-        <v>300.1</v>
+        <v>415.9</v>
       </c>
       <c r="Q4">
-        <v>532.4</v>
+        <v>1175.3</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -666,81 +723,120 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="U4">
-        <v>474</v>
+        <v>265.5</v>
       </c>
       <c r="V4">
-        <v>2362</v>
+        <v>8505</v>
       </c>
       <c r="W4">
         <v>91</v>
       </c>
       <c r="X4">
+        <v>664.1</v>
+      </c>
+      <c r="Y4">
+        <v>57</v>
+      </c>
+      <c r="Z4">
+        <v>62.6</v>
+      </c>
+      <c r="AA4">
+        <v>0.4</v>
+      </c>
+      <c r="AB4">
+        <v>27313</v>
+      </c>
+      <c r="AC4">
+        <v>300.1</v>
+      </c>
+      <c r="AD4">
+        <v>532.4</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>474</v>
+      </c>
+      <c r="AI4">
+        <v>2362</v>
+      </c>
+      <c r="AJ4">
+        <v>91</v>
+      </c>
+      <c r="AK4">
         <v>910.4</v>
       </c>
-      <c r="Y4">
+      <c r="AL4">
         <v>30</v>
       </c>
-      <c r="Z4">
+      <c r="AM4">
         <v>33</v>
       </c>
-      <c r="AA4">
+      <c r="AN4">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:40">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>563725</v>
+        <v>326384</v>
       </c>
       <c r="C5">
-        <v>2282.3</v>
+        <v>1321.4</v>
       </c>
       <c r="D5">
-        <v>3695.1</v>
+        <v>2024</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>48.5</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>909</v>
+        <v>609</v>
       </c>
       <c r="H5">
-        <v>2762.5</v>
+        <v>1899.5</v>
       </c>
       <c r="I5">
-        <v>22875</v>
+        <v>14118</v>
       </c>
       <c r="J5">
         <v>247</v>
       </c>
       <c r="K5">
-        <v>2967</v>
+        <v>1833.6</v>
       </c>
       <c r="L5">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="M5">
-        <v>76.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="N5">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="O5">
-        <v>123000</v>
+        <v>122804</v>
       </c>
       <c r="P5">
-        <v>498</v>
+        <v>497.2</v>
       </c>
       <c r="Q5">
-        <v>721.6</v>
+        <v>1673.8</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -749,42 +845,81 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="U5">
-        <v>827</v>
+        <v>316</v>
       </c>
       <c r="V5">
-        <v>4362</v>
+        <v>19557</v>
       </c>
       <c r="W5">
         <v>247</v>
       </c>
       <c r="X5">
+        <v>689.9</v>
+      </c>
+      <c r="Y5">
+        <v>178</v>
+      </c>
+      <c r="Z5">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="AA5">
+        <v>1.5</v>
+      </c>
+      <c r="AB5">
+        <v>123000</v>
+      </c>
+      <c r="AC5">
+        <v>498</v>
+      </c>
+      <c r="AD5">
+        <v>721.6</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>45</v>
+      </c>
+      <c r="AH5">
+        <v>827</v>
+      </c>
+      <c r="AI5">
+        <v>4362</v>
+      </c>
+      <c r="AJ5">
+        <v>247</v>
+      </c>
+      <c r="AK5">
         <v>976.2</v>
       </c>
-      <c r="Y5">
+      <c r="AL5">
         <v>126</v>
       </c>
-      <c r="Z5">
+      <c r="AM5">
         <v>51</v>
       </c>
-      <c r="AA5">
+      <c r="AN5">
         <v>1.6</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:40">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>137479</v>
+        <v>65814</v>
       </c>
       <c r="C6">
-        <v>1447.1</v>
+        <v>692.8</v>
       </c>
       <c r="D6">
-        <v>3349.3</v>
+        <v>1295.6</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -793,37 +928,37 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="H6">
-        <v>1116.5</v>
+        <v>753</v>
       </c>
       <c r="I6">
-        <v>22121</v>
+        <v>7432</v>
       </c>
       <c r="J6">
         <v>95</v>
       </c>
       <c r="K6">
-        <v>2499.6</v>
+        <v>1265.7</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M6">
-        <v>57.9</v>
+        <v>54.7</v>
       </c>
       <c r="N6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="O6">
-        <v>28570</v>
+        <v>32536</v>
       </c>
       <c r="P6">
-        <v>300.7</v>
+        <v>342.5</v>
       </c>
       <c r="Q6">
-        <v>658.7</v>
+        <v>1216.5</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -832,42 +967,81 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U6">
-        <v>309</v>
+        <v>129.5</v>
       </c>
       <c r="V6">
-        <v>3550</v>
+        <v>10371</v>
       </c>
       <c r="W6">
         <v>95</v>
       </c>
       <c r="X6">
+        <v>638</v>
+      </c>
+      <c r="Y6">
+        <v>51</v>
+      </c>
+      <c r="Z6">
+        <v>53.7</v>
+      </c>
+      <c r="AA6">
+        <v>-0.7</v>
+      </c>
+      <c r="AB6">
+        <v>28570</v>
+      </c>
+      <c r="AC6">
+        <v>300.7</v>
+      </c>
+      <c r="AD6">
+        <v>658.7</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>309</v>
+      </c>
+      <c r="AI6">
+        <v>3550</v>
+      </c>
+      <c r="AJ6">
+        <v>95</v>
+      </c>
+      <c r="AK6">
         <v>892.8</v>
       </c>
-      <c r="Y6">
+      <c r="AL6">
         <v>32</v>
       </c>
-      <c r="Z6">
+      <c r="AM6">
         <v>33.7</v>
       </c>
-      <c r="AA6">
+      <c r="AN6">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:40">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>448834</v>
+        <v>265084</v>
       </c>
       <c r="C7">
-        <v>813.1</v>
+        <v>480.2</v>
       </c>
       <c r="D7">
-        <v>2064.1</v>
+        <v>863.5</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -876,37 +1050,37 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>184.5</v>
+        <v>127</v>
       </c>
       <c r="H7">
-        <v>843.5</v>
+        <v>601.2</v>
       </c>
       <c r="I7">
-        <v>30621</v>
+        <v>8769</v>
       </c>
       <c r="J7">
         <v>552</v>
       </c>
       <c r="K7">
-        <v>1124.9</v>
+        <v>710.7</v>
       </c>
       <c r="L7">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="M7">
-        <v>72.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="N7">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="O7">
-        <v>185744</v>
+        <v>78433</v>
       </c>
       <c r="P7">
-        <v>336.5</v>
+        <v>142.1</v>
       </c>
       <c r="Q7">
-        <v>1725.1</v>
+        <v>324.1</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -915,42 +1089,81 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U7">
-        <v>394.8</v>
+        <v>141</v>
       </c>
       <c r="V7">
-        <v>36948</v>
+        <v>3864</v>
       </c>
       <c r="W7">
         <v>552</v>
       </c>
       <c r="X7">
+        <v>205.3</v>
+      </c>
+      <c r="Y7">
+        <v>382</v>
+      </c>
+      <c r="Z7">
+        <v>69.2</v>
+      </c>
+      <c r="AA7">
+        <v>1.2</v>
+      </c>
+      <c r="AB7">
+        <v>185744</v>
+      </c>
+      <c r="AC7">
+        <v>336.5</v>
+      </c>
+      <c r="AD7">
+        <v>1725.1</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>394.8</v>
+      </c>
+      <c r="AI7">
+        <v>36948</v>
+      </c>
+      <c r="AJ7">
+        <v>552</v>
+      </c>
+      <c r="AK7">
         <v>825.5</v>
       </c>
-      <c r="Y7">
+      <c r="AL7">
         <v>225</v>
       </c>
-      <c r="Z7">
+      <c r="AM7">
         <v>40.8</v>
       </c>
-      <c r="AA7">
+      <c r="AN7">
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:40">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>22036</v>
+        <v>15163</v>
       </c>
       <c r="C8">
-        <v>1695.1</v>
+        <v>1166.4</v>
       </c>
       <c r="D8">
-        <v>2175.4</v>
+        <v>1466.3</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -959,19 +1172,19 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>2911</v>
+        <v>2341</v>
       </c>
       <c r="I8">
-        <v>5461</v>
+        <v>3687</v>
       </c>
       <c r="J8">
         <v>13</v>
       </c>
       <c r="K8">
-        <v>2754.5</v>
+        <v>1895.4</v>
       </c>
       <c r="L8">
         <v>8</v>
@@ -980,16 +1193,16 @@
         <v>61.5</v>
       </c>
       <c r="N8">
-        <v>-0.6</v>
+        <v>0.3</v>
       </c>
       <c r="O8">
-        <v>5126</v>
+        <v>6817</v>
       </c>
       <c r="P8">
-        <v>394.3</v>
+        <v>524.4</v>
       </c>
       <c r="Q8">
-        <v>572</v>
+        <v>824.3</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -998,42 +1211,81 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U8">
-        <v>632</v>
+        <v>356</v>
       </c>
       <c r="V8">
-        <v>1451</v>
+        <v>2280</v>
       </c>
       <c r="W8">
         <v>13</v>
       </c>
       <c r="X8">
+        <v>973.9</v>
+      </c>
+      <c r="Y8">
+        <v>7</v>
+      </c>
+      <c r="Z8">
+        <v>53.8</v>
+      </c>
+      <c r="AA8">
+        <v>-0.7</v>
+      </c>
+      <c r="AB8">
+        <v>5126</v>
+      </c>
+      <c r="AC8">
+        <v>394.3</v>
+      </c>
+      <c r="AD8">
+        <v>572</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>632</v>
+      </c>
+      <c r="AI8">
+        <v>1451</v>
+      </c>
+      <c r="AJ8">
+        <v>13</v>
+      </c>
+      <c r="AK8">
         <v>1025.2</v>
       </c>
-      <c r="Y8">
+      <c r="AL8">
         <v>5</v>
       </c>
-      <c r="Z8">
+      <c r="AM8">
         <v>38.5</v>
       </c>
-      <c r="AA8">
+      <c r="AN8">
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:40">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>23867</v>
+        <v>5783</v>
       </c>
       <c r="C9">
-        <v>1591.1</v>
+        <v>385.5</v>
       </c>
       <c r="D9">
-        <v>4247.6</v>
+        <v>740.9</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1042,37 +1294,37 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1178</v>
+        <v>328</v>
       </c>
       <c r="I9">
-        <v>16598</v>
+        <v>2470</v>
       </c>
       <c r="J9">
         <v>15</v>
       </c>
       <c r="K9">
-        <v>2386.7</v>
+        <v>826.1</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>66.7</v>
+        <v>46.7</v>
       </c>
       <c r="N9">
-        <v>-0</v>
+        <v>-1.5</v>
       </c>
       <c r="O9">
-        <v>2988</v>
+        <v>1452</v>
       </c>
       <c r="P9">
-        <v>199.2</v>
+        <v>96.8</v>
       </c>
       <c r="Q9">
-        <v>436.5</v>
+        <v>174.3</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1081,42 +1333,81 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>133.5</v>
+        <v>87.5</v>
       </c>
       <c r="V9">
-        <v>1574</v>
+        <v>522</v>
       </c>
       <c r="W9">
         <v>15</v>
       </c>
       <c r="X9">
+        <v>161.3</v>
+      </c>
+      <c r="Y9">
+        <v>9</v>
+      </c>
+      <c r="Z9">
+        <v>60</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>2988</v>
+      </c>
+      <c r="AC9">
+        <v>199.2</v>
+      </c>
+      <c r="AD9">
+        <v>436.5</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>133.5</v>
+      </c>
+      <c r="AI9">
+        <v>1574</v>
+      </c>
+      <c r="AJ9">
+        <v>15</v>
+      </c>
+      <c r="AK9">
         <v>498</v>
       </c>
-      <c r="Y9">
+      <c r="AL9">
         <v>6</v>
       </c>
-      <c r="Z9">
+      <c r="AM9">
         <v>40</v>
       </c>
-      <c r="AA9">
+      <c r="AN9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:40">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>144468</v>
+        <v>75801</v>
       </c>
       <c r="C10">
-        <v>956.7</v>
+        <v>502</v>
       </c>
       <c r="D10">
-        <v>2086.4</v>
+        <v>1062.5</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1125,37 +1416,37 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="H10">
-        <v>1019.5</v>
+        <v>605.5</v>
       </c>
       <c r="I10">
-        <v>13075</v>
+        <v>8460</v>
       </c>
       <c r="J10">
         <v>151</v>
       </c>
       <c r="K10">
-        <v>1459.3</v>
+        <v>871.3</v>
       </c>
       <c r="L10">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="M10">
-        <v>65.59999999999999</v>
+        <v>57.6</v>
       </c>
       <c r="N10">
         <v>-0.2</v>
       </c>
       <c r="O10">
-        <v>58062</v>
+        <v>22749</v>
       </c>
       <c r="P10">
-        <v>384.5</v>
+        <v>150.7</v>
       </c>
       <c r="Q10">
-        <v>909.6</v>
+        <v>388.4</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1164,42 +1455,81 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U10">
-        <v>519.5</v>
+        <v>104</v>
       </c>
       <c r="V10">
-        <v>7664</v>
+        <v>3021</v>
       </c>
       <c r="W10">
         <v>151</v>
       </c>
       <c r="X10">
+        <v>247.3</v>
+      </c>
+      <c r="Y10">
+        <v>92</v>
+      </c>
+      <c r="Z10">
+        <v>60.9</v>
+      </c>
+      <c r="AA10">
+        <v>0.2</v>
+      </c>
+      <c r="AB10">
+        <v>58062</v>
+      </c>
+      <c r="AC10">
+        <v>384.5</v>
+      </c>
+      <c r="AD10">
+        <v>909.6</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>519.5</v>
+      </c>
+      <c r="AI10">
+        <v>7664</v>
+      </c>
+      <c r="AJ10">
+        <v>151</v>
+      </c>
+      <c r="AK10">
         <v>984.1</v>
       </c>
-      <c r="Y10">
+      <c r="AL10">
         <v>59</v>
       </c>
-      <c r="Z10">
+      <c r="AM10">
         <v>39.1</v>
       </c>
-      <c r="AA10">
+      <c r="AN10">
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:40">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>272090</v>
+        <v>52060</v>
       </c>
       <c r="C11">
-        <v>3127.5</v>
+        <v>598.4</v>
       </c>
       <c r="D11">
-        <v>8356.200000000001</v>
+        <v>1368.2</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1208,37 +1538,37 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1709</v>
+        <v>409.5</v>
       </c>
       <c r="I11">
-        <v>52507</v>
+        <v>7613</v>
       </c>
       <c r="J11">
         <v>87</v>
       </c>
       <c r="K11">
-        <v>5441.8</v>
+        <v>1269.8</v>
       </c>
       <c r="L11">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M11">
-        <v>57.5</v>
+        <v>47.1</v>
       </c>
       <c r="N11">
-        <v>-1.1</v>
+        <v>-1.5</v>
       </c>
       <c r="O11">
-        <v>42542</v>
+        <v>21698</v>
       </c>
       <c r="P11">
-        <v>489</v>
+        <v>249.4</v>
       </c>
       <c r="Q11">
-        <v>1429.2</v>
+        <v>722.4</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1250,39 +1580,78 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>346</v>
+        <v>137</v>
       </c>
       <c r="V11">
-        <v>8880</v>
+        <v>5171</v>
       </c>
       <c r="W11">
         <v>87</v>
       </c>
       <c r="X11">
+        <v>529.2</v>
+      </c>
+      <c r="Y11">
+        <v>41</v>
+      </c>
+      <c r="Z11">
+        <v>47.1</v>
+      </c>
+      <c r="AA11">
+        <v>-1.5</v>
+      </c>
+      <c r="AB11">
+        <v>42542</v>
+      </c>
+      <c r="AC11">
+        <v>489</v>
+      </c>
+      <c r="AD11">
+        <v>1429.2</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>346</v>
+      </c>
+      <c r="AI11">
+        <v>8880</v>
+      </c>
+      <c r="AJ11">
+        <v>87</v>
+      </c>
+      <c r="AK11">
         <v>1636.2</v>
       </c>
-      <c r="Y11">
+      <c r="AL11">
         <v>26</v>
       </c>
-      <c r="Z11">
+      <c r="AM11">
         <v>29.9</v>
       </c>
-      <c r="AA11">
+      <c r="AN11">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:40">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12">
-        <v>1120571</v>
+        <v>420301</v>
       </c>
       <c r="C12">
-        <v>1466.7</v>
+        <v>550.1</v>
       </c>
       <c r="D12">
-        <v>4842.5</v>
+        <v>1981</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1291,37 +1660,37 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="H12">
-        <v>808.2</v>
+        <v>497.2</v>
       </c>
       <c r="I12">
-        <v>68140</v>
+        <v>43003</v>
       </c>
       <c r="J12">
         <v>764</v>
       </c>
       <c r="K12">
-        <v>2446.7</v>
+        <v>1037.8</v>
       </c>
       <c r="L12">
-        <v>458</v>
+        <v>405</v>
       </c>
       <c r="M12">
-        <v>59.9</v>
+        <v>53</v>
       </c>
       <c r="N12">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="O12">
-        <v>232095</v>
+        <v>92872</v>
       </c>
       <c r="P12">
-        <v>303.8</v>
+        <v>121.6</v>
       </c>
       <c r="Q12">
-        <v>1120.6</v>
+        <v>534.5</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1330,81 +1699,120 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U12">
-        <v>104.2</v>
+        <v>56.2</v>
       </c>
       <c r="V12">
-        <v>21892</v>
+        <v>10421</v>
       </c>
       <c r="W12">
         <v>764</v>
       </c>
       <c r="X12">
+        <v>229.9</v>
+      </c>
+      <c r="Y12">
+        <v>404</v>
+      </c>
+      <c r="Z12">
+        <v>52.9</v>
+      </c>
+      <c r="AA12">
+        <v>-0.8</v>
+      </c>
+      <c r="AB12">
+        <v>232095</v>
+      </c>
+      <c r="AC12">
+        <v>303.8</v>
+      </c>
+      <c r="AD12">
+        <v>1120.6</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>104.2</v>
+      </c>
+      <c r="AI12">
+        <v>21892</v>
+      </c>
+      <c r="AJ12">
+        <v>764</v>
+      </c>
+      <c r="AK12">
         <v>1126.7</v>
       </c>
-      <c r="Y12">
+      <c r="AL12">
         <v>206</v>
       </c>
-      <c r="Z12">
+      <c r="AM12">
         <v>27</v>
       </c>
-      <c r="AA12">
+      <c r="AN12">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:40">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>100079</v>
+        <v>27211</v>
       </c>
       <c r="C13">
-        <v>2943.5</v>
+        <v>800.3</v>
       </c>
       <c r="D13">
-        <v>4168.2</v>
+        <v>1087.4</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1350.5</v>
+        <v>130</v>
       </c>
       <c r="H13">
-        <v>3481</v>
+        <v>1622.5</v>
       </c>
       <c r="I13">
-        <v>16647</v>
+        <v>4125</v>
       </c>
       <c r="J13">
         <v>34</v>
       </c>
       <c r="K13">
-        <v>3849.2</v>
+        <v>1360.6</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M13">
-        <v>76.5</v>
+        <v>58.8</v>
       </c>
       <c r="N13">
-        <v>1.1</v>
+        <v>-0</v>
       </c>
       <c r="O13">
-        <v>14566</v>
+        <v>9567</v>
       </c>
       <c r="P13">
-        <v>428.4</v>
+        <v>281.4</v>
       </c>
       <c r="Q13">
-        <v>986.4</v>
+        <v>514.1</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1413,125 +1821,203 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="U13">
-        <v>756.2</v>
+        <v>397.8</v>
       </c>
       <c r="V13">
-        <v>5316</v>
+        <v>2057</v>
       </c>
       <c r="W13">
         <v>34</v>
       </c>
       <c r="X13">
+        <v>478.4</v>
+      </c>
+      <c r="Y13">
+        <v>20</v>
+      </c>
+      <c r="Z13">
+        <v>58.8</v>
+      </c>
+      <c r="AA13">
+        <v>-0.1</v>
+      </c>
+      <c r="AB13">
+        <v>14566</v>
+      </c>
+      <c r="AC13">
+        <v>428.4</v>
+      </c>
+      <c r="AD13">
+        <v>986.4</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>756.2</v>
+      </c>
+      <c r="AI13">
+        <v>5316</v>
+      </c>
+      <c r="AJ13">
+        <v>34</v>
+      </c>
+      <c r="AK13">
         <v>1213.8</v>
       </c>
-      <c r="Y13">
+      <c r="AL13">
         <v>12</v>
       </c>
-      <c r="Z13">
+      <c r="AM13">
         <v>35.3</v>
       </c>
-      <c r="AA13">
+      <c r="AN13">
         <v>-0</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:40">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14">
-        <v>526109</v>
+        <v>264135</v>
       </c>
       <c r="C14">
-        <v>3169.3</v>
+        <v>1591.2</v>
       </c>
       <c r="D14">
-        <v>7075.8</v>
+        <v>2505.6</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>183.5</v>
+        <v>21</v>
       </c>
       <c r="G14">
-        <v>1219</v>
+        <v>886.5</v>
       </c>
       <c r="H14">
-        <v>2893.8</v>
+        <v>1970.8</v>
       </c>
       <c r="I14">
-        <v>74441</v>
+        <v>19900</v>
       </c>
       <c r="J14">
         <v>166</v>
       </c>
       <c r="K14">
-        <v>3840.2</v>
+        <v>2096.3</v>
       </c>
       <c r="L14">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="M14">
-        <v>82.5</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="N14">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O14">
-        <v>101889</v>
+        <v>100550</v>
       </c>
       <c r="P14">
-        <v>613.8</v>
+        <v>605.7</v>
       </c>
       <c r="Q14">
-        <v>879.9</v>
+        <v>1932.8</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T14">
-        <v>412</v>
+        <v>121.5</v>
       </c>
       <c r="U14">
-        <v>1019</v>
+        <v>439.5</v>
       </c>
       <c r="V14">
-        <v>6448</v>
+        <v>18016</v>
       </c>
       <c r="W14">
         <v>166</v>
       </c>
       <c r="X14">
+        <v>779.5</v>
+      </c>
+      <c r="Y14">
+        <v>129</v>
+      </c>
+      <c r="Z14">
+        <v>77.7</v>
+      </c>
+      <c r="AA14">
+        <v>2.2</v>
+      </c>
+      <c r="AB14">
+        <v>101889</v>
+      </c>
+      <c r="AC14">
+        <v>613.8</v>
+      </c>
+      <c r="AD14">
+        <v>879.9</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>412</v>
+      </c>
+      <c r="AH14">
+        <v>1019</v>
+      </c>
+      <c r="AI14">
+        <v>6448</v>
+      </c>
+      <c r="AJ14">
+        <v>166</v>
+      </c>
+      <c r="AK14">
         <v>1061.3</v>
       </c>
-      <c r="Y14">
+      <c r="AL14">
         <v>96</v>
       </c>
-      <c r="Z14">
+      <c r="AM14">
         <v>57.8</v>
       </c>
-      <c r="AA14">
+      <c r="AN14">
         <v>2.3</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:40">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15">
-        <v>90447</v>
+        <v>56254</v>
       </c>
       <c r="C15">
-        <v>1924.4</v>
+        <v>1196.9</v>
       </c>
       <c r="D15">
-        <v>3852.9</v>
+        <v>2050.1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1540,37 +2026,37 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="H15">
-        <v>2427</v>
+        <v>1657.5</v>
       </c>
       <c r="I15">
-        <v>23410</v>
+        <v>10793</v>
       </c>
       <c r="J15">
         <v>47</v>
       </c>
       <c r="K15">
-        <v>3230.2</v>
+        <v>2250.2</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>59.6</v>
+        <v>53.2</v>
       </c>
       <c r="N15">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="O15">
-        <v>17243</v>
+        <v>24745</v>
       </c>
       <c r="P15">
-        <v>366.9</v>
+        <v>526.5</v>
       </c>
       <c r="Q15">
-        <v>784.1</v>
+        <v>1847.9</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1579,81 +2065,120 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U15">
-        <v>221</v>
+        <v>364.5</v>
       </c>
       <c r="V15">
-        <v>3642</v>
+        <v>12485</v>
       </c>
       <c r="W15">
         <v>47</v>
       </c>
       <c r="X15">
+        <v>951.7</v>
+      </c>
+      <c r="Y15">
+        <v>26</v>
+      </c>
+      <c r="Z15">
+        <v>55.3</v>
+      </c>
+      <c r="AA15">
+        <v>-0.5</v>
+      </c>
+      <c r="AB15">
+        <v>17243</v>
+      </c>
+      <c r="AC15">
+        <v>366.9</v>
+      </c>
+      <c r="AD15">
+        <v>784.1</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>221</v>
+      </c>
+      <c r="AI15">
+        <v>3642</v>
+      </c>
+      <c r="AJ15">
+        <v>47</v>
+      </c>
+      <c r="AK15">
         <v>1326.4</v>
       </c>
-      <c r="Y15">
+      <c r="AL15">
         <v>13</v>
       </c>
-      <c r="Z15">
+      <c r="AM15">
         <v>27.7</v>
       </c>
-      <c r="AA15">
+      <c r="AN15">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:40">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16">
-        <v>87908</v>
+        <v>35023</v>
       </c>
       <c r="C16">
-        <v>2044.4</v>
+        <v>814.5</v>
       </c>
       <c r="D16">
-        <v>4135.6</v>
+        <v>1243.5</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>376</v>
+        <v>175</v>
       </c>
       <c r="H16">
-        <v>1703.5</v>
+        <v>1040.5</v>
       </c>
       <c r="I16">
-        <v>18679</v>
+        <v>4765</v>
       </c>
       <c r="J16">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>2585.5</v>
+        <v>1207.7</v>
       </c>
       <c r="L16">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>79.09999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="N16">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="O16">
-        <v>12027</v>
+        <v>21246</v>
       </c>
       <c r="P16">
-        <v>279.7</v>
+        <v>494.1</v>
       </c>
       <c r="Q16">
-        <v>465.9</v>
+        <v>1719.8</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -1662,42 +2187,81 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="U16">
-        <v>465</v>
+        <v>312.5</v>
       </c>
       <c r="V16">
-        <v>1721</v>
+        <v>11227</v>
       </c>
       <c r="W16">
         <v>43</v>
       </c>
       <c r="X16">
+        <v>708.2</v>
+      </c>
+      <c r="Y16">
+        <v>30</v>
+      </c>
+      <c r="Z16">
+        <v>69.8</v>
+      </c>
+      <c r="AA16">
+        <v>1.2</v>
+      </c>
+      <c r="AB16">
+        <v>12027</v>
+      </c>
+      <c r="AC16">
+        <v>279.7</v>
+      </c>
+      <c r="AD16">
+        <v>465.9</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>465</v>
+      </c>
+      <c r="AI16">
+        <v>1721</v>
+      </c>
+      <c r="AJ16">
+        <v>43</v>
+      </c>
+      <c r="AK16">
         <v>668.2</v>
       </c>
-      <c r="Y16">
+      <c r="AL16">
         <v>18</v>
       </c>
-      <c r="Z16">
+      <c r="AM16">
         <v>41.9</v>
       </c>
-      <c r="AA16">
+      <c r="AN16">
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:40">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17">
-        <v>320022</v>
+        <v>139444</v>
       </c>
       <c r="C17">
-        <v>1818.3</v>
+        <v>792.3</v>
       </c>
       <c r="D17">
-        <v>4632.7</v>
+        <v>1650.3</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1706,37 +2270,37 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>328</v>
+        <v>134.5</v>
       </c>
       <c r="H17">
-        <v>1485.8</v>
+        <v>966</v>
       </c>
       <c r="I17">
-        <v>31042</v>
+        <v>14162</v>
       </c>
       <c r="J17">
         <v>176</v>
       </c>
       <c r="K17">
-        <v>2883.1</v>
+        <v>1353.8</v>
       </c>
       <c r="L17">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M17">
-        <v>63.1</v>
+        <v>58.5</v>
       </c>
       <c r="N17">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="O17">
-        <v>85654</v>
+        <v>67109</v>
       </c>
       <c r="P17">
-        <v>486.7</v>
+        <v>381.3</v>
       </c>
       <c r="Q17">
-        <v>2957.9</v>
+        <v>1758.7</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -1745,42 +2309,81 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="U17">
-        <v>242.8</v>
+        <v>145.8</v>
       </c>
       <c r="V17">
-        <v>36858</v>
+        <v>20111</v>
       </c>
       <c r="W17">
         <v>176</v>
       </c>
       <c r="X17">
+        <v>645.3</v>
+      </c>
+      <c r="Y17">
+        <v>104</v>
+      </c>
+      <c r="Z17">
+        <v>59.1</v>
+      </c>
+      <c r="AA17">
+        <v>-0.1</v>
+      </c>
+      <c r="AB17">
+        <v>85654</v>
+      </c>
+      <c r="AC17">
+        <v>486.7</v>
+      </c>
+      <c r="AD17">
+        <v>2957.9</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>242.8</v>
+      </c>
+      <c r="AI17">
+        <v>36858</v>
+      </c>
+      <c r="AJ17">
+        <v>176</v>
+      </c>
+      <c r="AK17">
         <v>1679.5</v>
       </c>
-      <c r="Y17">
+      <c r="AL17">
         <v>51</v>
       </c>
-      <c r="Z17">
+      <c r="AM17">
         <v>29</v>
       </c>
-      <c r="AA17">
+      <c r="AN17">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:40">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18">
-        <v>87222</v>
+        <v>33503</v>
       </c>
       <c r="C18">
-        <v>785.8</v>
+        <v>301.8</v>
       </c>
       <c r="D18">
-        <v>5736.8</v>
+        <v>1294.4</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1789,37 +2392,37 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>209</v>
+        <v>167.5</v>
       </c>
       <c r="I18">
-        <v>60386</v>
+        <v>13060</v>
       </c>
       <c r="J18">
         <v>111</v>
       </c>
       <c r="K18">
-        <v>1478.3</v>
+        <v>609.1</v>
       </c>
       <c r="L18">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M18">
-        <v>53.2</v>
+        <v>49.5</v>
       </c>
       <c r="N18">
-        <v>-1.6</v>
+        <v>-1.2</v>
       </c>
       <c r="O18">
-        <v>13139</v>
+        <v>50544</v>
       </c>
       <c r="P18">
-        <v>118.4</v>
+        <v>455.4</v>
       </c>
       <c r="Q18">
-        <v>329.2</v>
+        <v>4458.2</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -1828,81 +2431,120 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="V18">
-        <v>2234</v>
+        <v>46992</v>
       </c>
       <c r="W18">
         <v>111</v>
       </c>
       <c r="X18">
+        <v>902.6</v>
+      </c>
+      <c r="Y18">
+        <v>56</v>
+      </c>
+      <c r="Z18">
+        <v>50.5</v>
+      </c>
+      <c r="AA18">
+        <v>-1.1</v>
+      </c>
+      <c r="AB18">
+        <v>13139</v>
+      </c>
+      <c r="AC18">
+        <v>118.4</v>
+      </c>
+      <c r="AD18">
+        <v>329.2</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>2234</v>
+      </c>
+      <c r="AJ18">
+        <v>111</v>
+      </c>
+      <c r="AK18">
         <v>625.7</v>
       </c>
-      <c r="Y18">
+      <c r="AL18">
         <v>21</v>
       </c>
-      <c r="Z18">
+      <c r="AM18">
         <v>18.9</v>
       </c>
-      <c r="AA18">
+      <c r="AN18">
         <v>-1.7</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:40">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19">
-        <v>70307</v>
+        <v>23418</v>
       </c>
       <c r="C19">
-        <v>3348</v>
+        <v>1115.1</v>
       </c>
       <c r="D19">
-        <v>4383.3</v>
+        <v>1519.9</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1937</v>
+        <v>141</v>
       </c>
       <c r="H19">
-        <v>4717</v>
+        <v>2085</v>
       </c>
       <c r="I19">
-        <v>13909</v>
+        <v>5548</v>
       </c>
       <c r="J19">
         <v>21</v>
       </c>
       <c r="K19">
-        <v>4135.7</v>
+        <v>1672.7</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M19">
-        <v>81</v>
+        <v>66.7</v>
       </c>
       <c r="N19">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>6516</v>
+        <v>14452</v>
       </c>
       <c r="P19">
-        <v>310.3</v>
+        <v>688.2</v>
       </c>
       <c r="Q19">
-        <v>536.4</v>
+        <v>1519.9</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -1911,42 +2553,81 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="U19">
-        <v>549</v>
+        <v>331</v>
       </c>
       <c r="V19">
-        <v>2030</v>
+        <v>5547</v>
       </c>
       <c r="W19">
         <v>21</v>
       </c>
       <c r="X19">
+        <v>1032.3</v>
+      </c>
+      <c r="Y19">
+        <v>14</v>
+      </c>
+      <c r="Z19">
+        <v>66.7</v>
+      </c>
+      <c r="AA19">
+        <v>0.9</v>
+      </c>
+      <c r="AB19">
+        <v>6516</v>
+      </c>
+      <c r="AC19">
+        <v>310.3</v>
+      </c>
+      <c r="AD19">
+        <v>536.4</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>549</v>
+      </c>
+      <c r="AI19">
+        <v>2030</v>
+      </c>
+      <c r="AJ19">
+        <v>21</v>
+      </c>
+      <c r="AK19">
         <v>930.9</v>
       </c>
-      <c r="Y19">
+      <c r="AL19">
         <v>7</v>
       </c>
-      <c r="Z19">
+      <c r="AM19">
         <v>33.3</v>
       </c>
-      <c r="AA19">
+      <c r="AN19">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:40">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20">
-        <v>173417</v>
+        <v>59378</v>
       </c>
       <c r="C20">
-        <v>1700.2</v>
+        <v>582.1</v>
       </c>
       <c r="D20">
-        <v>5572.7</v>
+        <v>1108</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1955,37 +2636,37 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>144.5</v>
+        <v>77.5</v>
       </c>
       <c r="H20">
-        <v>960.2</v>
+        <v>637.2</v>
       </c>
       <c r="I20">
-        <v>47158</v>
+        <v>6213</v>
       </c>
       <c r="J20">
         <v>102</v>
       </c>
       <c r="K20">
-        <v>2550.2</v>
+        <v>942.5</v>
       </c>
       <c r="L20">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="M20">
-        <v>66.7</v>
+        <v>61.8</v>
       </c>
       <c r="N20">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="O20">
-        <v>48435</v>
+        <v>28434</v>
       </c>
       <c r="P20">
-        <v>474.9</v>
+        <v>278.8</v>
       </c>
       <c r="Q20">
-        <v>2037.8</v>
+        <v>944.5</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -1994,81 +2675,120 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="U20">
-        <v>487.2</v>
+        <v>143</v>
       </c>
       <c r="V20">
-        <v>20246</v>
+        <v>6137</v>
       </c>
       <c r="W20">
         <v>102</v>
       </c>
       <c r="X20">
+        <v>458.6</v>
+      </c>
+      <c r="Y20">
+        <v>62</v>
+      </c>
+      <c r="Z20">
+        <v>60.8</v>
+      </c>
+      <c r="AA20">
+        <v>0.1</v>
+      </c>
+      <c r="AB20">
+        <v>48435</v>
+      </c>
+      <c r="AC20">
+        <v>474.9</v>
+      </c>
+      <c r="AD20">
+        <v>2037.8</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>487.2</v>
+      </c>
+      <c r="AI20">
+        <v>20246</v>
+      </c>
+      <c r="AJ20">
+        <v>102</v>
+      </c>
+      <c r="AK20">
         <v>1153.2</v>
       </c>
-      <c r="Y20">
+      <c r="AL20">
         <v>42</v>
       </c>
-      <c r="Z20">
+      <c r="AM20">
         <v>41.2</v>
       </c>
-      <c r="AA20">
+      <c r="AN20">
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:40">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21">
-        <v>157196</v>
+        <v>14019</v>
       </c>
       <c r="C21">
-        <v>4623.4</v>
+        <v>412.3</v>
       </c>
       <c r="D21">
-        <v>9800.5</v>
+        <v>774.7</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>297.5</v>
+        <v>18.5</v>
       </c>
       <c r="H21">
-        <v>2113.8</v>
+        <v>384</v>
       </c>
       <c r="I21">
-        <v>40453</v>
+        <v>3039</v>
       </c>
       <c r="J21">
         <v>34</v>
       </c>
       <c r="K21">
-        <v>6287.8</v>
+        <v>778.8</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M21">
-        <v>73.5</v>
+        <v>52.9</v>
       </c>
       <c r="N21">
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
       <c r="O21">
-        <v>18151</v>
+        <v>5044</v>
       </c>
       <c r="P21">
-        <v>533.9</v>
+        <v>148.4</v>
       </c>
       <c r="Q21">
-        <v>1278.3</v>
+        <v>385.1</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2077,42 +2797,81 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U21">
-        <v>476.8</v>
+        <v>79.8</v>
       </c>
       <c r="V21">
-        <v>6335</v>
+        <v>1644</v>
       </c>
       <c r="W21">
         <v>34</v>
       </c>
       <c r="X21">
+        <v>280.2</v>
+      </c>
+      <c r="Y21">
+        <v>18</v>
+      </c>
+      <c r="Z21">
+        <v>52.9</v>
+      </c>
+      <c r="AA21">
+        <v>-0.8</v>
+      </c>
+      <c r="AB21">
+        <v>18151</v>
+      </c>
+      <c r="AC21">
+        <v>533.9</v>
+      </c>
+      <c r="AD21">
+        <v>1278.3</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>476.8</v>
+      </c>
+      <c r="AI21">
+        <v>6335</v>
+      </c>
+      <c r="AJ21">
+        <v>34</v>
+      </c>
+      <c r="AK21">
         <v>1650.1</v>
       </c>
-      <c r="Y21">
+      <c r="AL21">
         <v>11</v>
       </c>
-      <c r="Z21">
+      <c r="AM21">
         <v>32.4</v>
       </c>
-      <c r="AA21">
+      <c r="AN21">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:40">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22">
-        <v>295520</v>
+        <v>160935</v>
       </c>
       <c r="C22">
-        <v>1319.3</v>
+        <v>718.5</v>
       </c>
       <c r="D22">
-        <v>5197.5</v>
+        <v>3268.4</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2121,37 +2880,37 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>85</v>
+        <v>37.5</v>
       </c>
       <c r="H22">
-        <v>911</v>
+        <v>597.2</v>
       </c>
       <c r="I22">
-        <v>68775</v>
+        <v>47571</v>
       </c>
       <c r="J22">
         <v>224</v>
       </c>
       <c r="K22">
-        <v>2024.1</v>
+        <v>1228.5</v>
       </c>
       <c r="L22">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="M22">
-        <v>65.2</v>
+        <v>58.5</v>
       </c>
       <c r="N22">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="O22">
-        <v>68622</v>
+        <v>69031</v>
       </c>
       <c r="P22">
-        <v>306.3</v>
+        <v>308.2</v>
       </c>
       <c r="Q22">
-        <v>488.3</v>
+        <v>1476.2</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -2160,42 +2919,81 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U22">
-        <v>492</v>
+        <v>141</v>
       </c>
       <c r="V22">
-        <v>2322</v>
+        <v>20884</v>
       </c>
       <c r="W22">
         <v>224</v>
       </c>
       <c r="X22">
+        <v>496.6</v>
+      </c>
+      <c r="Y22">
+        <v>139</v>
+      </c>
+      <c r="Z22">
+        <v>62.1</v>
+      </c>
+      <c r="AA22">
+        <v>0.3</v>
+      </c>
+      <c r="AB22">
+        <v>68622</v>
+      </c>
+      <c r="AC22">
+        <v>306.3</v>
+      </c>
+      <c r="AD22">
+        <v>488.3</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>492</v>
+      </c>
+      <c r="AI22">
+        <v>2322</v>
+      </c>
+      <c r="AJ22">
+        <v>224</v>
+      </c>
+      <c r="AK22">
         <v>693.2</v>
       </c>
-      <c r="Y22">
+      <c r="AL22">
         <v>99</v>
       </c>
-      <c r="Z22">
+      <c r="AM22">
         <v>44.2</v>
       </c>
-      <c r="AA22">
+      <c r="AN22">
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:40">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23">
-        <v>16655</v>
+        <v>8943</v>
       </c>
       <c r="C23">
-        <v>504.7</v>
+        <v>271</v>
       </c>
       <c r="D23">
-        <v>1177.2</v>
+        <v>431.8</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2207,34 +3005,34 @@
         <v>4</v>
       </c>
       <c r="H23">
-        <v>532</v>
+        <v>468</v>
       </c>
       <c r="I23">
-        <v>6490</v>
+        <v>1755</v>
       </c>
       <c r="J23">
         <v>33</v>
       </c>
       <c r="K23">
-        <v>925.3</v>
+        <v>526.1</v>
       </c>
       <c r="L23">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>54.5</v>
+        <v>51.5</v>
       </c>
       <c r="N23">
-        <v>-1.4</v>
+        <v>-0.9</v>
       </c>
       <c r="O23">
-        <v>3826</v>
+        <v>1216</v>
       </c>
       <c r="P23">
-        <v>115.9</v>
+        <v>36.8</v>
       </c>
       <c r="Q23">
-        <v>428.8</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -2246,39 +3044,78 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="V23">
-        <v>2344</v>
+        <v>341</v>
       </c>
       <c r="W23">
         <v>33</v>
       </c>
       <c r="X23">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="Y23">
+        <v>15</v>
+      </c>
+      <c r="Z23">
+        <v>45.5</v>
+      </c>
+      <c r="AA23">
+        <v>-1.7</v>
+      </c>
+      <c r="AB23">
+        <v>3826</v>
+      </c>
+      <c r="AC23">
+        <v>115.9</v>
+      </c>
+      <c r="AD23">
+        <v>428.8</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>2344</v>
+      </c>
+      <c r="AJ23">
+        <v>33</v>
+      </c>
+      <c r="AK23">
         <v>765.2</v>
       </c>
-      <c r="Y23">
+      <c r="AL23">
         <v>5</v>
       </c>
-      <c r="Z23">
+      <c r="AM23">
         <v>15.2</v>
       </c>
-      <c r="AA23">
+      <c r="AN23">
         <v>-2.1</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:40">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24">
-        <v>592525</v>
+        <v>237216</v>
       </c>
       <c r="C24">
-        <v>1779.4</v>
+        <v>712.4</v>
       </c>
       <c r="D24">
-        <v>5944.2</v>
+        <v>1972.8</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2287,37 +3124,37 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="H24">
-        <v>1070</v>
+        <v>666</v>
       </c>
       <c r="I24">
-        <v>72982</v>
+        <v>18330</v>
       </c>
       <c r="J24">
         <v>333</v>
       </c>
       <c r="K24">
-        <v>2730.5</v>
+        <v>1198.1</v>
       </c>
       <c r="L24">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="M24">
-        <v>65.2</v>
+        <v>59.5</v>
       </c>
       <c r="N24">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O24">
-        <v>91108</v>
+        <v>99912</v>
       </c>
       <c r="P24">
-        <v>273.6</v>
+        <v>300</v>
       </c>
       <c r="Q24">
-        <v>603.1</v>
+        <v>961</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -2326,34 +3163,74 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="U24">
-        <v>340</v>
+        <v>139</v>
       </c>
       <c r="V24">
-        <v>6327</v>
+        <v>7809</v>
       </c>
       <c r="W24">
         <v>333</v>
       </c>
       <c r="X24">
+        <v>492.2</v>
+      </c>
+      <c r="Y24">
+        <v>203</v>
+      </c>
+      <c r="Z24">
+        <v>61</v>
+      </c>
+      <c r="AA24">
+        <v>0.2</v>
+      </c>
+      <c r="AB24">
+        <v>91108</v>
+      </c>
+      <c r="AC24">
+        <v>273.6</v>
+      </c>
+      <c r="AD24">
+        <v>603.1</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>340</v>
+      </c>
+      <c r="AI24">
+        <v>6327</v>
+      </c>
+      <c r="AJ24">
+        <v>333</v>
+      </c>
+      <c r="AK24">
         <v>785.4</v>
       </c>
-      <c r="Y24">
+      <c r="AL24">
         <v>116</v>
       </c>
-      <c r="Z24">
+      <c r="AM24">
         <v>34.8</v>
       </c>
-      <c r="AA24">
+      <c r="AN24">
         <v>-0.1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="O1:AA1"/>
+    <mergeCell ref="AB1:AN1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/analysis/social_media_analytics/pivot_tables/subject_matter_simpl/museum_activity_groups__var1-subject_matter_simpl.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/subject_matter_simpl/museum_activity_groups__var1-subject_matter_simpl.xlsx
@@ -669,13 +669,13 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>117960</v>
+        <v>132830</v>
       </c>
       <c r="C4">
-        <v>1296.3</v>
+        <v>1459.7</v>
       </c>
       <c r="D4">
-        <v>5107.6</v>
+        <v>5471.5</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -684,37 +684,37 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H4">
-        <v>936.5</v>
+        <v>1210</v>
       </c>
       <c r="I4">
-        <v>47580</v>
+        <v>50844</v>
       </c>
       <c r="J4">
         <v>91</v>
       </c>
       <c r="K4">
-        <v>2069.5</v>
+        <v>2372</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>62.6</v>
+        <v>61.5</v>
       </c>
       <c r="N4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O4">
-        <v>37851</v>
+        <v>45361</v>
       </c>
       <c r="P4">
-        <v>415.9</v>
+        <v>498.5</v>
       </c>
       <c r="Q4">
-        <v>1175.3</v>
+        <v>1441.7</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -723,37 +723,37 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="U4">
-        <v>265.5</v>
+        <v>310</v>
       </c>
       <c r="V4">
-        <v>8505</v>
+        <v>10903</v>
       </c>
       <c r="W4">
         <v>91</v>
       </c>
       <c r="X4">
-        <v>664.1</v>
+        <v>810</v>
       </c>
       <c r="Y4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z4">
-        <v>62.6</v>
+        <v>61.5</v>
       </c>
       <c r="AA4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AB4">
-        <v>27313</v>
+        <v>40648</v>
       </c>
       <c r="AC4">
-        <v>300.1</v>
+        <v>446.7</v>
       </c>
       <c r="AD4">
-        <v>532.4</v>
+        <v>714.8</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -762,28 +762,28 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="AH4">
-        <v>474</v>
+        <v>707.5</v>
       </c>
       <c r="AI4">
-        <v>2362</v>
+        <v>4716</v>
       </c>
       <c r="AJ4">
         <v>91</v>
       </c>
       <c r="AK4">
-        <v>910.4</v>
+        <v>713.1</v>
       </c>
       <c r="AL4">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="AM4">
-        <v>33</v>
+        <v>62.6</v>
       </c>
       <c r="AN4">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -791,13 +791,13 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>326384</v>
+        <v>380477</v>
       </c>
       <c r="C5">
-        <v>1321.4</v>
+        <v>1540.4</v>
       </c>
       <c r="D5">
-        <v>2024</v>
+        <v>2406.5</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -806,37 +806,37 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>609</v>
+        <v>662</v>
       </c>
       <c r="H5">
-        <v>1899.5</v>
+        <v>2119.5</v>
       </c>
       <c r="I5">
-        <v>14118</v>
+        <v>17617</v>
       </c>
       <c r="J5">
         <v>247</v>
       </c>
       <c r="K5">
-        <v>1833.6</v>
+        <v>2161.8</v>
       </c>
       <c r="L5">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M5">
-        <v>72.09999999999999</v>
+        <v>71.3</v>
       </c>
       <c r="N5">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O5">
-        <v>122804</v>
+        <v>143256</v>
       </c>
       <c r="P5">
-        <v>497.2</v>
+        <v>580</v>
       </c>
       <c r="Q5">
-        <v>1673.8</v>
+        <v>2046.7</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -845,37 +845,37 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="U5">
-        <v>316</v>
+        <v>357.5</v>
       </c>
       <c r="V5">
-        <v>19557</v>
+        <v>24554</v>
       </c>
       <c r="W5">
         <v>247</v>
       </c>
       <c r="X5">
-        <v>689.9</v>
+        <v>814</v>
       </c>
       <c r="Y5">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Z5">
-        <v>72.09999999999999</v>
+        <v>71.3</v>
       </c>
       <c r="AA5">
         <v>1.5</v>
       </c>
       <c r="AB5">
-        <v>123000</v>
+        <v>163038</v>
       </c>
       <c r="AC5">
-        <v>498</v>
+        <v>660.1</v>
       </c>
       <c r="AD5">
-        <v>721.6</v>
+        <v>802</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -884,28 +884,28 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>45</v>
+        <v>372</v>
       </c>
       <c r="AH5">
-        <v>827</v>
+        <v>1140</v>
       </c>
       <c r="AI5">
-        <v>4362</v>
+        <v>5325</v>
       </c>
       <c r="AJ5">
         <v>247</v>
       </c>
       <c r="AK5">
-        <v>976.2</v>
+        <v>942.4</v>
       </c>
       <c r="AL5">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="AM5">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AN5">
-        <v>1.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -913,13 +913,13 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>65814</v>
+        <v>76875</v>
       </c>
       <c r="C6">
-        <v>692.8</v>
+        <v>809.2</v>
       </c>
       <c r="D6">
-        <v>1295.6</v>
+        <v>1574.6</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -928,37 +928,37 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H6">
-        <v>753</v>
+        <v>781</v>
       </c>
       <c r="I6">
-        <v>7432</v>
+        <v>8788</v>
       </c>
       <c r="J6">
         <v>95</v>
       </c>
       <c r="K6">
-        <v>1265.7</v>
+        <v>1507.4</v>
       </c>
       <c r="L6">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M6">
-        <v>54.7</v>
+        <v>53.7</v>
       </c>
       <c r="N6">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="O6">
-        <v>32536</v>
+        <v>39404</v>
       </c>
       <c r="P6">
-        <v>342.5</v>
+        <v>414.8</v>
       </c>
       <c r="Q6">
-        <v>1216.5</v>
+        <v>1628.9</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -967,37 +967,37 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="U6">
-        <v>129.5</v>
+        <v>144.5</v>
       </c>
       <c r="V6">
-        <v>10371</v>
+        <v>14550</v>
       </c>
       <c r="W6">
         <v>95</v>
       </c>
       <c r="X6">
-        <v>638</v>
+        <v>788.1</v>
       </c>
       <c r="Y6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z6">
-        <v>53.7</v>
+        <v>52.6</v>
       </c>
       <c r="AA6">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="AB6">
-        <v>28570</v>
+        <v>48483</v>
       </c>
       <c r="AC6">
-        <v>300.7</v>
+        <v>510.3</v>
       </c>
       <c r="AD6">
-        <v>658.7</v>
+        <v>806.8</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1006,28 +1006,28 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="AH6">
-        <v>309</v>
+        <v>652</v>
       </c>
       <c r="AI6">
-        <v>3550</v>
+        <v>4356</v>
       </c>
       <c r="AJ6">
         <v>95</v>
       </c>
       <c r="AK6">
-        <v>892.8</v>
+        <v>734.6</v>
       </c>
       <c r="AL6">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="AM6">
-        <v>33.7</v>
+        <v>69.5</v>
       </c>
       <c r="AN6">
-        <v>-0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1035,13 +1035,13 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>265084</v>
+        <v>309000</v>
       </c>
       <c r="C7">
-        <v>480.2</v>
+        <v>559.8</v>
       </c>
       <c r="D7">
-        <v>863.5</v>
+        <v>1026.8</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1050,37 +1050,37 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>127</v>
+        <v>144.5</v>
       </c>
       <c r="H7">
-        <v>601.2</v>
+        <v>675.8</v>
       </c>
       <c r="I7">
-        <v>8769</v>
+        <v>10974</v>
       </c>
       <c r="J7">
         <v>552</v>
       </c>
       <c r="K7">
-        <v>710.7</v>
+        <v>835.1</v>
       </c>
       <c r="L7">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M7">
-        <v>67.59999999999999</v>
+        <v>67</v>
       </c>
       <c r="N7">
         <v>1.1</v>
       </c>
       <c r="O7">
-        <v>78433</v>
+        <v>89441</v>
       </c>
       <c r="P7">
-        <v>142.1</v>
+        <v>162</v>
       </c>
       <c r="Q7">
-        <v>324.1</v>
+        <v>373.1</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1089,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="U7">
-        <v>141</v>
+        <v>158.5</v>
       </c>
       <c r="V7">
-        <v>3864</v>
+        <v>4680</v>
       </c>
       <c r="W7">
         <v>552</v>
       </c>
       <c r="X7">
-        <v>205.3</v>
+        <v>234.1</v>
       </c>
       <c r="Y7">
         <v>382</v>
@@ -1113,13 +1113,13 @@
         <v>1.2</v>
       </c>
       <c r="AB7">
-        <v>185744</v>
+        <v>235997</v>
       </c>
       <c r="AC7">
-        <v>336.5</v>
+        <v>427.5</v>
       </c>
       <c r="AD7">
-        <v>1725.1</v>
+        <v>547.2</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1128,28 +1128,28 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>300.5</v>
       </c>
       <c r="AH7">
-        <v>394.8</v>
+        <v>639.5</v>
       </c>
       <c r="AI7">
-        <v>36948</v>
+        <v>6193</v>
       </c>
       <c r="AJ7">
         <v>552</v>
       </c>
       <c r="AK7">
-        <v>825.5</v>
+        <v>606.7</v>
       </c>
       <c r="AL7">
-        <v>225</v>
+        <v>389</v>
       </c>
       <c r="AM7">
-        <v>40.8</v>
+        <v>70.5</v>
       </c>
       <c r="AN7">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1157,13 +1157,13 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>15163</v>
+        <v>17454</v>
       </c>
       <c r="C8">
-        <v>1166.4</v>
+        <v>1342.6</v>
       </c>
       <c r="D8">
-        <v>1466.3</v>
+        <v>1707.4</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1175,16 +1175,16 @@
         <v>5</v>
       </c>
       <c r="H8">
-        <v>2341</v>
+        <v>2605</v>
       </c>
       <c r="I8">
-        <v>3687</v>
+        <v>4379</v>
       </c>
       <c r="J8">
         <v>13</v>
       </c>
       <c r="K8">
-        <v>1895.4</v>
+        <v>2181.8</v>
       </c>
       <c r="L8">
         <v>8</v>
@@ -1193,16 +1193,16 @@
         <v>61.5</v>
       </c>
       <c r="N8">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="O8">
-        <v>6817</v>
+        <v>7856</v>
       </c>
       <c r="P8">
-        <v>524.4</v>
+        <v>604.3</v>
       </c>
       <c r="Q8">
-        <v>824.3</v>
+        <v>950.1</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1214,16 +1214,16 @@
         <v>4</v>
       </c>
       <c r="U8">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="V8">
-        <v>2280</v>
+        <v>2581</v>
       </c>
       <c r="W8">
         <v>13</v>
       </c>
       <c r="X8">
-        <v>973.9</v>
+        <v>1122.3</v>
       </c>
       <c r="Y8">
         <v>7</v>
@@ -1235,13 +1235,13 @@
         <v>-0.7</v>
       </c>
       <c r="AB8">
-        <v>5126</v>
+        <v>7047</v>
       </c>
       <c r="AC8">
-        <v>394.3</v>
+        <v>542.1</v>
       </c>
       <c r="AD8">
-        <v>572</v>
+        <v>676</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -1250,28 +1250,28 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AH8">
-        <v>632</v>
+        <v>962</v>
       </c>
       <c r="AI8">
-        <v>1451</v>
+        <v>1727</v>
       </c>
       <c r="AJ8">
         <v>13</v>
       </c>
       <c r="AK8">
-        <v>1025.2</v>
+        <v>880.9</v>
       </c>
       <c r="AL8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AM8">
-        <v>38.5</v>
+        <v>61.5</v>
       </c>
       <c r="AN8">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1279,13 +1279,13 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>5783</v>
+        <v>6811</v>
       </c>
       <c r="C9">
-        <v>385.5</v>
+        <v>454.1</v>
       </c>
       <c r="D9">
-        <v>740.9</v>
+        <v>874</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>328</v>
+        <v>409.5</v>
       </c>
       <c r="I9">
-        <v>2470</v>
+        <v>2940</v>
       </c>
       <c r="J9">
         <v>15</v>
       </c>
       <c r="K9">
-        <v>826.1</v>
+        <v>973</v>
       </c>
       <c r="L9">
         <v>7</v>
@@ -1318,13 +1318,13 @@
         <v>-1.5</v>
       </c>
       <c r="O9">
-        <v>1452</v>
+        <v>1719</v>
       </c>
       <c r="P9">
-        <v>96.8</v>
+        <v>114.6</v>
       </c>
       <c r="Q9">
-        <v>174.3</v>
+        <v>203.9</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U9">
-        <v>87.5</v>
+        <v>109</v>
       </c>
       <c r="V9">
-        <v>522</v>
+        <v>611</v>
       </c>
       <c r="W9">
         <v>15</v>
       </c>
       <c r="X9">
-        <v>161.3</v>
+        <v>191</v>
       </c>
       <c r="Y9">
         <v>9</v>
@@ -1354,16 +1354,16 @@
         <v>60</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB9">
-        <v>2988</v>
+        <v>4772</v>
       </c>
       <c r="AC9">
-        <v>199.2</v>
+        <v>318.1</v>
       </c>
       <c r="AD9">
-        <v>436.5</v>
+        <v>529.9</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -1372,28 +1372,28 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH9">
-        <v>133.5</v>
+        <v>354</v>
       </c>
       <c r="AI9">
-        <v>1574</v>
+        <v>1785</v>
       </c>
       <c r="AJ9">
         <v>15</v>
       </c>
       <c r="AK9">
-        <v>498</v>
+        <v>596.5</v>
       </c>
       <c r="AL9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AM9">
-        <v>40</v>
+        <v>53.3</v>
       </c>
       <c r="AN9">
-        <v>0.5</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1401,13 +1401,13 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>75801</v>
+        <v>87385</v>
       </c>
       <c r="C10">
-        <v>502</v>
+        <v>578.7</v>
       </c>
       <c r="D10">
-        <v>1062.5</v>
+        <v>1217.3</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1416,37 +1416,37 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H10">
-        <v>605.5</v>
+        <v>684</v>
       </c>
       <c r="I10">
-        <v>8460</v>
+        <v>9116</v>
       </c>
       <c r="J10">
         <v>151</v>
       </c>
       <c r="K10">
-        <v>871.3</v>
+        <v>1028.1</v>
       </c>
       <c r="L10">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M10">
-        <v>57.6</v>
+        <v>56.3</v>
       </c>
       <c r="N10">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="O10">
-        <v>22749</v>
+        <v>25284</v>
       </c>
       <c r="P10">
-        <v>150.7</v>
+        <v>167.4</v>
       </c>
       <c r="Q10">
-        <v>388.4</v>
+        <v>439.8</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U10">
-        <v>104</v>
+        <v>116.5</v>
       </c>
       <c r="V10">
-        <v>3021</v>
+        <v>3242</v>
       </c>
       <c r="W10">
         <v>151</v>
       </c>
       <c r="X10">
-        <v>247.3</v>
+        <v>280.9</v>
       </c>
       <c r="Y10">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Z10">
-        <v>60.9</v>
+        <v>59.6</v>
       </c>
       <c r="AA10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>58062</v>
+        <v>67194</v>
       </c>
       <c r="AC10">
-        <v>384.5</v>
+        <v>445</v>
       </c>
       <c r="AD10">
-        <v>909.6</v>
+        <v>695.8</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="AH10">
-        <v>519.5</v>
+        <v>716.5</v>
       </c>
       <c r="AI10">
-        <v>7664</v>
+        <v>5226</v>
       </c>
       <c r="AJ10">
         <v>151</v>
       </c>
       <c r="AK10">
-        <v>984.1</v>
+        <v>658.8</v>
       </c>
       <c r="AL10">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AM10">
-        <v>39.1</v>
+        <v>67.5</v>
       </c>
       <c r="AN10">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1523,13 +1523,13 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>52060</v>
+        <v>61217</v>
       </c>
       <c r="C11">
-        <v>598.4</v>
+        <v>703.6</v>
       </c>
       <c r="D11">
-        <v>1368.2</v>
+        <v>1782.6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1541,34 +1541,34 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>409.5</v>
+        <v>442</v>
       </c>
       <c r="I11">
-        <v>7613</v>
+        <v>11368</v>
       </c>
       <c r="J11">
         <v>87</v>
       </c>
       <c r="K11">
-        <v>1269.8</v>
+        <v>1530.4</v>
       </c>
       <c r="L11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>47.1</v>
+        <v>46</v>
       </c>
       <c r="N11">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="O11">
-        <v>21698</v>
+        <v>23756</v>
       </c>
       <c r="P11">
-        <v>249.4</v>
+        <v>273.1</v>
       </c>
       <c r="Q11">
-        <v>722.4</v>
+        <v>807</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1580,34 +1580,34 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>137</v>
+        <v>144.5</v>
       </c>
       <c r="V11">
-        <v>5171</v>
+        <v>5461</v>
       </c>
       <c r="W11">
         <v>87</v>
       </c>
       <c r="X11">
-        <v>529.2</v>
+        <v>593.9</v>
       </c>
       <c r="Y11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z11">
-        <v>47.1</v>
+        <v>46</v>
       </c>
       <c r="AA11">
-        <v>-1.5</v>
+        <v>-1.7</v>
       </c>
       <c r="AB11">
-        <v>42542</v>
+        <v>28029</v>
       </c>
       <c r="AC11">
-        <v>489</v>
+        <v>322.2</v>
       </c>
       <c r="AD11">
-        <v>1429.2</v>
+        <v>594.5</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -1619,25 +1619,25 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>346</v>
+        <v>585.5</v>
       </c>
       <c r="AI11">
-        <v>8880</v>
+        <v>3251</v>
       </c>
       <c r="AJ11">
         <v>87</v>
       </c>
       <c r="AK11">
-        <v>1636.2</v>
+        <v>683.6</v>
       </c>
       <c r="AL11">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM11">
-        <v>29.9</v>
+        <v>47.1</v>
       </c>
       <c r="AN11">
-        <v>-0.6</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1645,13 +1645,13 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>420301</v>
+        <v>506715</v>
       </c>
       <c r="C12">
-        <v>550.1</v>
+        <v>663.2</v>
       </c>
       <c r="D12">
-        <v>1981</v>
+        <v>2530.5</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1660,37 +1660,37 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="H12">
-        <v>497.2</v>
+        <v>568.8</v>
       </c>
       <c r="I12">
-        <v>43003</v>
+        <v>55081</v>
       </c>
       <c r="J12">
         <v>764</v>
       </c>
       <c r="K12">
-        <v>1037.8</v>
+        <v>1270</v>
       </c>
       <c r="L12">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="M12">
-        <v>53</v>
+        <v>52.2</v>
       </c>
       <c r="N12">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="O12">
-        <v>92872</v>
+        <v>113753</v>
       </c>
       <c r="P12">
-        <v>121.6</v>
+        <v>148.9</v>
       </c>
       <c r="Q12">
-        <v>534.5</v>
+        <v>767.9</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1699,37 +1699,37 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>56.2</v>
+        <v>65.2</v>
       </c>
       <c r="V12">
-        <v>10421</v>
+        <v>17700</v>
       </c>
       <c r="W12">
         <v>764</v>
       </c>
       <c r="X12">
-        <v>229.9</v>
+        <v>283.7</v>
       </c>
       <c r="Y12">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="Z12">
-        <v>52.9</v>
+        <v>52.5</v>
       </c>
       <c r="AA12">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="AB12">
-        <v>232095</v>
+        <v>274851</v>
       </c>
       <c r="AC12">
-        <v>303.8</v>
+        <v>359.8</v>
       </c>
       <c r="AD12">
-        <v>1120.6</v>
+        <v>663.5</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -1738,28 +1738,28 @@
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="AH12">
-        <v>104.2</v>
+        <v>448</v>
       </c>
       <c r="AI12">
-        <v>21892</v>
+        <v>8295</v>
       </c>
       <c r="AJ12">
         <v>764</v>
       </c>
       <c r="AK12">
-        <v>1126.7</v>
+        <v>605.4</v>
       </c>
       <c r="AL12">
-        <v>206</v>
+        <v>454</v>
       </c>
       <c r="AM12">
-        <v>27</v>
+        <v>59.4</v>
       </c>
       <c r="AN12">
-        <v>-0.9</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -1767,13 +1767,13 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>27211</v>
+        <v>33508</v>
       </c>
       <c r="C13">
-        <v>800.3</v>
+        <v>985.5</v>
       </c>
       <c r="D13">
-        <v>1087.4</v>
+        <v>1327.4</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1782,19 +1782,19 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H13">
-        <v>1622.5</v>
+        <v>1849.5</v>
       </c>
       <c r="I13">
-        <v>4125</v>
+        <v>4997</v>
       </c>
       <c r="J13">
         <v>34</v>
       </c>
       <c r="K13">
-        <v>1360.6</v>
+        <v>1675.4</v>
       </c>
       <c r="L13">
         <v>20</v>
@@ -1803,16 +1803,16 @@
         <v>58.8</v>
       </c>
       <c r="N13">
-        <v>-0</v>
+        <v>0.1</v>
       </c>
       <c r="O13">
-        <v>9567</v>
+        <v>11533</v>
       </c>
       <c r="P13">
-        <v>281.4</v>
+        <v>339.2</v>
       </c>
       <c r="Q13">
-        <v>514.1</v>
+        <v>592.6</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>9.5</v>
       </c>
       <c r="U13">
-        <v>397.8</v>
+        <v>493.8</v>
       </c>
       <c r="V13">
-        <v>2057</v>
+        <v>2377</v>
       </c>
       <c r="W13">
         <v>34</v>
       </c>
       <c r="X13">
-        <v>478.4</v>
+        <v>576.6</v>
       </c>
       <c r="Y13">
         <v>20</v>
@@ -1845,13 +1845,13 @@
         <v>-0.1</v>
       </c>
       <c r="AB13">
-        <v>14566</v>
+        <v>11917</v>
       </c>
       <c r="AC13">
-        <v>428.4</v>
+        <v>350.5</v>
       </c>
       <c r="AD13">
-        <v>986.4</v>
+        <v>577.8</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -1863,25 +1863,25 @@
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>756.2</v>
+        <v>677.8</v>
       </c>
       <c r="AI13">
-        <v>5316</v>
+        <v>2139</v>
       </c>
       <c r="AJ13">
         <v>34</v>
       </c>
       <c r="AK13">
-        <v>1213.8</v>
+        <v>794.5</v>
       </c>
       <c r="AL13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AM13">
-        <v>35.3</v>
+        <v>44.1</v>
       </c>
       <c r="AN13">
-        <v>-0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="14" spans="1:40">
@@ -1889,91 +1889,91 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>264135</v>
+        <v>311955</v>
       </c>
       <c r="C14">
-        <v>1591.2</v>
+        <v>1879.2</v>
       </c>
       <c r="D14">
-        <v>2505.6</v>
+        <v>2981.2</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>886.5</v>
+        <v>1008.5</v>
       </c>
       <c r="H14">
-        <v>1970.8</v>
+        <v>2340.2</v>
       </c>
       <c r="I14">
-        <v>19900</v>
+        <v>24791</v>
       </c>
       <c r="J14">
         <v>166</v>
       </c>
       <c r="K14">
-        <v>2096.3</v>
+        <v>2495.6</v>
       </c>
       <c r="L14">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M14">
-        <v>75.90000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="N14">
         <v>2.1</v>
       </c>
       <c r="O14">
-        <v>100550</v>
+        <v>114864</v>
       </c>
       <c r="P14">
-        <v>605.7</v>
+        <v>692</v>
       </c>
       <c r="Q14">
-        <v>1932.8</v>
+        <v>2168.3</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T14">
-        <v>121.5</v>
+        <v>129</v>
       </c>
       <c r="U14">
-        <v>439.5</v>
+        <v>512</v>
       </c>
       <c r="V14">
-        <v>18016</v>
+        <v>20340</v>
       </c>
       <c r="W14">
         <v>166</v>
       </c>
       <c r="X14">
-        <v>779.5</v>
+        <v>897.4</v>
       </c>
       <c r="Y14">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Z14">
-        <v>77.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="AA14">
         <v>2.2</v>
       </c>
       <c r="AB14">
-        <v>101889</v>
+        <v>123422</v>
       </c>
       <c r="AC14">
-        <v>613.8</v>
+        <v>743.5</v>
       </c>
       <c r="AD14">
-        <v>879.9</v>
+        <v>742.3</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -1982,28 +1982,28 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>412</v>
+        <v>666.5</v>
       </c>
       <c r="AH14">
-        <v>1019</v>
+        <v>1227</v>
       </c>
       <c r="AI14">
-        <v>6448</v>
+        <v>3410</v>
       </c>
       <c r="AJ14">
         <v>166</v>
       </c>
       <c r="AK14">
-        <v>1061.3</v>
+        <v>1011.7</v>
       </c>
       <c r="AL14">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="AM14">
-        <v>57.8</v>
+        <v>73.5</v>
       </c>
       <c r="AN14">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:40">
@@ -2011,13 +2011,13 @@
         <v>28</v>
       </c>
       <c r="B15">
-        <v>56254</v>
+        <v>61207</v>
       </c>
       <c r="C15">
-        <v>1196.9</v>
+        <v>1302.3</v>
       </c>
       <c r="D15">
-        <v>2050.1</v>
+        <v>2370</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2026,37 +2026,37 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="H15">
-        <v>1657.5</v>
+        <v>1841.5</v>
       </c>
       <c r="I15">
-        <v>10793</v>
+        <v>12666</v>
       </c>
       <c r="J15">
         <v>47</v>
       </c>
       <c r="K15">
-        <v>2250.2</v>
+        <v>2550.3</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M15">
-        <v>53.2</v>
+        <v>51.1</v>
       </c>
       <c r="N15">
-        <v>-0.7</v>
+        <v>-0.9</v>
       </c>
       <c r="O15">
-        <v>24745</v>
+        <v>27277</v>
       </c>
       <c r="P15">
-        <v>526.5</v>
+        <v>580.4</v>
       </c>
       <c r="Q15">
-        <v>1847.9</v>
+        <v>2149.2</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2065,37 +2065,37 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="U15">
-        <v>364.5</v>
+        <v>336.5</v>
       </c>
       <c r="V15">
-        <v>12485</v>
+        <v>14514</v>
       </c>
       <c r="W15">
         <v>47</v>
       </c>
       <c r="X15">
-        <v>951.7</v>
+        <v>1091.1</v>
       </c>
       <c r="Y15">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z15">
-        <v>55.3</v>
+        <v>53.2</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>-0.8</v>
       </c>
       <c r="AB15">
-        <v>17243</v>
+        <v>19561</v>
       </c>
       <c r="AC15">
-        <v>366.9</v>
+        <v>416.2</v>
       </c>
       <c r="AD15">
-        <v>784.1</v>
+        <v>715.9</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -2107,25 +2107,25 @@
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>221</v>
+        <v>520</v>
       </c>
       <c r="AI15">
-        <v>3642</v>
+        <v>3465</v>
       </c>
       <c r="AJ15">
         <v>47</v>
       </c>
       <c r="AK15">
-        <v>1326.4</v>
+        <v>850.5</v>
       </c>
       <c r="AL15">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AM15">
-        <v>27.7</v>
+        <v>48.9</v>
       </c>
       <c r="AN15">
-        <v>-0.8</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="16" spans="1:40">
@@ -2133,13 +2133,13 @@
         <v>29</v>
       </c>
       <c r="B16">
-        <v>35023</v>
+        <v>42420</v>
       </c>
       <c r="C16">
-        <v>814.5</v>
+        <v>986.5</v>
       </c>
       <c r="D16">
-        <v>1243.5</v>
+        <v>1482.5</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2148,19 +2148,19 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>175</v>
+        <v>291</v>
       </c>
       <c r="H16">
-        <v>1040.5</v>
+        <v>1298</v>
       </c>
       <c r="I16">
-        <v>4765</v>
+        <v>6036</v>
       </c>
       <c r="J16">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>1207.7</v>
+        <v>1462.8</v>
       </c>
       <c r="L16">
         <v>29</v>
@@ -2172,13 +2172,13 @@
         <v>1.1</v>
       </c>
       <c r="O16">
-        <v>21246</v>
+        <v>25411</v>
       </c>
       <c r="P16">
-        <v>494.1</v>
+        <v>591</v>
       </c>
       <c r="Q16">
-        <v>1719.8</v>
+        <v>2130.9</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2187,19 +2187,19 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="U16">
-        <v>312.5</v>
+        <v>375.5</v>
       </c>
       <c r="V16">
-        <v>11227</v>
+        <v>13956</v>
       </c>
       <c r="W16">
         <v>43</v>
       </c>
       <c r="X16">
-        <v>708.2</v>
+        <v>847</v>
       </c>
       <c r="Y16">
         <v>30</v>
@@ -2208,16 +2208,16 @@
         <v>69.8</v>
       </c>
       <c r="AA16">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AB16">
-        <v>12027</v>
+        <v>15694</v>
       </c>
       <c r="AC16">
-        <v>279.7</v>
+        <v>365</v>
       </c>
       <c r="AD16">
-        <v>465.9</v>
+        <v>500.4</v>
       </c>
       <c r="AE16">
         <v>0</v>
@@ -2226,28 +2226,28 @@
         <v>0</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="AH16">
-        <v>465</v>
+        <v>644</v>
       </c>
       <c r="AI16">
-        <v>1721</v>
+        <v>2074</v>
       </c>
       <c r="AJ16">
         <v>43</v>
       </c>
       <c r="AK16">
-        <v>668.2</v>
+        <v>581.3</v>
       </c>
       <c r="AL16">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AM16">
-        <v>41.9</v>
+        <v>62.8</v>
       </c>
       <c r="AN16">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:40">
@@ -2255,13 +2255,13 @@
         <v>30</v>
       </c>
       <c r="B17">
-        <v>139444</v>
+        <v>164767</v>
       </c>
       <c r="C17">
-        <v>792.3</v>
+        <v>936.2</v>
       </c>
       <c r="D17">
-        <v>1650.3</v>
+        <v>1907.1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2270,19 +2270,19 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>134.5</v>
+        <v>228.5</v>
       </c>
       <c r="H17">
-        <v>966</v>
+        <v>1155</v>
       </c>
       <c r="I17">
-        <v>14162</v>
+        <v>16335</v>
       </c>
       <c r="J17">
         <v>176</v>
       </c>
       <c r="K17">
-        <v>1353.8</v>
+        <v>1599.7</v>
       </c>
       <c r="L17">
         <v>103</v>
@@ -2291,16 +2291,16 @@
         <v>58.5</v>
       </c>
       <c r="N17">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>67109</v>
+        <v>76948</v>
       </c>
       <c r="P17">
-        <v>381.3</v>
+        <v>437.2</v>
       </c>
       <c r="Q17">
-        <v>1758.7</v>
+        <v>1972.3</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2309,19 +2309,19 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="U17">
-        <v>145.8</v>
+        <v>182</v>
       </c>
       <c r="V17">
-        <v>20111</v>
+        <v>22462</v>
       </c>
       <c r="W17">
         <v>176</v>
       </c>
       <c r="X17">
-        <v>645.3</v>
+        <v>739.9</v>
       </c>
       <c r="Y17">
         <v>104</v>
@@ -2330,16 +2330,16 @@
         <v>59.1</v>
       </c>
       <c r="AA17">
-        <v>-0.1</v>
+        <v>-0</v>
       </c>
       <c r="AB17">
-        <v>85654</v>
+        <v>65164</v>
       </c>
       <c r="AC17">
-        <v>486.7</v>
+        <v>370.2</v>
       </c>
       <c r="AD17">
-        <v>2957.9</v>
+        <v>551.2</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -2348,28 +2348,28 @@
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>111.5</v>
       </c>
       <c r="AH17">
-        <v>242.8</v>
+        <v>466.5</v>
       </c>
       <c r="AI17">
-        <v>36858</v>
+        <v>2449</v>
       </c>
       <c r="AJ17">
         <v>176</v>
       </c>
       <c r="AK17">
-        <v>1679.5</v>
+        <v>592.4</v>
       </c>
       <c r="AL17">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="AM17">
-        <v>29</v>
+        <v>62.5</v>
       </c>
       <c r="AN17">
-        <v>-0.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:40">
@@ -2377,13 +2377,13 @@
         <v>31</v>
       </c>
       <c r="B18">
-        <v>33503</v>
+        <v>38208</v>
       </c>
       <c r="C18">
-        <v>301.8</v>
+        <v>344.2</v>
       </c>
       <c r="D18">
-        <v>1294.4</v>
+        <v>1460.5</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2395,16 +2395,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>167.5</v>
+        <v>181.5</v>
       </c>
       <c r="I18">
-        <v>13060</v>
+        <v>14651</v>
       </c>
       <c r="J18">
         <v>111</v>
       </c>
       <c r="K18">
-        <v>609.1</v>
+        <v>694.7</v>
       </c>
       <c r="L18">
         <v>55</v>
@@ -2413,16 +2413,16 @@
         <v>49.5</v>
       </c>
       <c r="N18">
-        <v>-1.2</v>
+        <v>-1.1</v>
       </c>
       <c r="O18">
-        <v>50544</v>
+        <v>52779</v>
       </c>
       <c r="P18">
-        <v>455.4</v>
+        <v>475.5</v>
       </c>
       <c r="Q18">
-        <v>4458.2</v>
+        <v>4621.8</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2431,37 +2431,37 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>18.5</v>
+        <v>28.5</v>
       </c>
       <c r="V18">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="W18">
         <v>111</v>
       </c>
       <c r="X18">
-        <v>902.6</v>
+        <v>959.6</v>
       </c>
       <c r="Y18">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z18">
-        <v>50.5</v>
+        <v>49.5</v>
       </c>
       <c r="AA18">
-        <v>-1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="AB18">
-        <v>13139</v>
+        <v>31638</v>
       </c>
       <c r="AC18">
-        <v>118.4</v>
+        <v>285</v>
       </c>
       <c r="AD18">
-        <v>329.2</v>
+        <v>465.3</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -2470,28 +2470,28 @@
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="AI18">
-        <v>2234</v>
+        <v>2680</v>
       </c>
       <c r="AJ18">
         <v>111</v>
       </c>
       <c r="AK18">
-        <v>625.7</v>
+        <v>479.4</v>
       </c>
       <c r="AL18">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="AM18">
-        <v>18.9</v>
+        <v>59.5</v>
       </c>
       <c r="AN18">
-        <v>-1.7</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="19" spans="1:40">
@@ -2499,13 +2499,13 @@
         <v>32</v>
       </c>
       <c r="B19">
-        <v>23418</v>
+        <v>27021</v>
       </c>
       <c r="C19">
-        <v>1115.1</v>
+        <v>1286.7</v>
       </c>
       <c r="D19">
-        <v>1519.9</v>
+        <v>1690</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2514,19 +2514,19 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>141</v>
+        <v>237</v>
       </c>
       <c r="H19">
-        <v>2085</v>
+        <v>2297</v>
       </c>
       <c r="I19">
-        <v>5548</v>
+        <v>5970</v>
       </c>
       <c r="J19">
         <v>21</v>
       </c>
       <c r="K19">
-        <v>1672.7</v>
+        <v>1930.1</v>
       </c>
       <c r="L19">
         <v>14</v>
@@ -2535,16 +2535,16 @@
         <v>66.7</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="O19">
-        <v>14452</v>
+        <v>16948</v>
       </c>
       <c r="P19">
-        <v>688.2</v>
+        <v>807</v>
       </c>
       <c r="Q19">
-        <v>1519.9</v>
+        <v>1805.5</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2553,19 +2553,19 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="U19">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="V19">
-        <v>5547</v>
+        <v>6792</v>
       </c>
       <c r="W19">
         <v>21</v>
       </c>
       <c r="X19">
-        <v>1032.3</v>
+        <v>1210.6</v>
       </c>
       <c r="Y19">
         <v>14</v>
@@ -2577,13 +2577,13 @@
         <v>0.9</v>
       </c>
       <c r="AB19">
-        <v>6516</v>
+        <v>9212</v>
       </c>
       <c r="AC19">
-        <v>310.3</v>
+        <v>438.7</v>
       </c>
       <c r="AD19">
-        <v>536.4</v>
+        <v>484</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -2592,28 +2592,28 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AH19">
-        <v>549</v>
+        <v>673</v>
       </c>
       <c r="AI19">
-        <v>2030</v>
+        <v>1319</v>
       </c>
       <c r="AJ19">
         <v>21</v>
       </c>
       <c r="AK19">
-        <v>930.9</v>
+        <v>658</v>
       </c>
       <c r="AL19">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AM19">
-        <v>33.3</v>
+        <v>66.7</v>
       </c>
       <c r="AN19">
-        <v>-0.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="20" spans="1:40">
@@ -2621,13 +2621,13 @@
         <v>33</v>
       </c>
       <c r="B20">
-        <v>59378</v>
+        <v>70171</v>
       </c>
       <c r="C20">
-        <v>582.1</v>
+        <v>688</v>
       </c>
       <c r="D20">
-        <v>1108</v>
+        <v>1342.6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2636,37 +2636,37 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.5</v>
+        <v>70</v>
       </c>
       <c r="H20">
-        <v>637.2</v>
+        <v>746</v>
       </c>
       <c r="I20">
-        <v>6213</v>
+        <v>7473</v>
       </c>
       <c r="J20">
         <v>102</v>
       </c>
       <c r="K20">
-        <v>942.5</v>
+        <v>1150.3</v>
       </c>
       <c r="L20">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M20">
-        <v>61.8</v>
+        <v>59.8</v>
       </c>
       <c r="N20">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="O20">
-        <v>28434</v>
+        <v>32130</v>
       </c>
       <c r="P20">
-        <v>278.8</v>
+        <v>315</v>
       </c>
       <c r="Q20">
-        <v>944.5</v>
+        <v>1050</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2675,37 +2675,37 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="U20">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="V20">
-        <v>6137</v>
+        <v>6511</v>
       </c>
       <c r="W20">
         <v>102</v>
       </c>
       <c r="X20">
-        <v>458.6</v>
+        <v>535.5</v>
       </c>
       <c r="Y20">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Z20">
-        <v>60.8</v>
+        <v>58.8</v>
       </c>
       <c r="AA20">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="AB20">
-        <v>48435</v>
+        <v>43150</v>
       </c>
       <c r="AC20">
-        <v>474.9</v>
+        <v>423</v>
       </c>
       <c r="AD20">
-        <v>2037.8</v>
+        <v>604.3</v>
       </c>
       <c r="AE20">
         <v>0</v>
@@ -2714,28 +2714,28 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="AH20">
-        <v>487.2</v>
+        <v>631.8</v>
       </c>
       <c r="AI20">
-        <v>20246</v>
+        <v>2592</v>
       </c>
       <c r="AJ20">
         <v>102</v>
       </c>
       <c r="AK20">
-        <v>1153.2</v>
+        <v>707.4</v>
       </c>
       <c r="AL20">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AM20">
-        <v>41.2</v>
+        <v>59.8</v>
       </c>
       <c r="AN20">
-        <v>0.6</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="21" spans="1:40">
@@ -2743,13 +2743,13 @@
         <v>34</v>
       </c>
       <c r="B21">
-        <v>14019</v>
+        <v>16151</v>
       </c>
       <c r="C21">
-        <v>412.3</v>
+        <v>475</v>
       </c>
       <c r="D21">
-        <v>774.7</v>
+        <v>895.3</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="H21">
-        <v>384</v>
+        <v>423.5</v>
       </c>
       <c r="I21">
-        <v>3039</v>
+        <v>3413</v>
       </c>
       <c r="J21">
         <v>34</v>
       </c>
       <c r="K21">
-        <v>778.8</v>
+        <v>897.3</v>
       </c>
       <c r="L21">
         <v>18</v>
@@ -2779,16 +2779,16 @@
         <v>52.9</v>
       </c>
       <c r="N21">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="O21">
-        <v>5044</v>
+        <v>6013</v>
       </c>
       <c r="P21">
-        <v>148.4</v>
+        <v>176.9</v>
       </c>
       <c r="Q21">
-        <v>385.1</v>
+        <v>460.7</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2797,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U21">
-        <v>79.8</v>
+        <v>107.2</v>
       </c>
       <c r="V21">
-        <v>1644</v>
+        <v>1951</v>
       </c>
       <c r="W21">
         <v>34</v>
       </c>
       <c r="X21">
-        <v>280.2</v>
+        <v>334.1</v>
       </c>
       <c r="Y21">
         <v>18</v>
@@ -2821,13 +2821,13 @@
         <v>-0.8</v>
       </c>
       <c r="AB21">
-        <v>18151</v>
+        <v>13138</v>
       </c>
       <c r="AC21">
-        <v>533.9</v>
+        <v>386.4</v>
       </c>
       <c r="AD21">
-        <v>1278.3</v>
+        <v>725.6</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>476.8</v>
+        <v>306.5</v>
       </c>
       <c r="AI21">
-        <v>6335</v>
+        <v>3105</v>
       </c>
       <c r="AJ21">
         <v>34</v>
       </c>
       <c r="AK21">
-        <v>1650.1</v>
+        <v>821.1</v>
       </c>
       <c r="AL21">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AM21">
-        <v>32.4</v>
+        <v>47.1</v>
       </c>
       <c r="AN21">
-        <v>-0.3</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="22" spans="1:40">
@@ -2865,13 +2865,13 @@
         <v>35</v>
       </c>
       <c r="B22">
-        <v>160935</v>
+        <v>184626</v>
       </c>
       <c r="C22">
-        <v>718.5</v>
+        <v>824.2</v>
       </c>
       <c r="D22">
-        <v>3268.4</v>
+        <v>3610.3</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2880,37 +2880,37 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>37.5</v>
+        <v>38</v>
       </c>
       <c r="H22">
-        <v>597.2</v>
+        <v>682</v>
       </c>
       <c r="I22">
-        <v>47571</v>
+        <v>52263</v>
       </c>
       <c r="J22">
         <v>224</v>
       </c>
       <c r="K22">
-        <v>1228.5</v>
+        <v>1420.2</v>
       </c>
       <c r="L22">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M22">
-        <v>58.5</v>
+        <v>58</v>
       </c>
       <c r="N22">
-        <v>-0.1</v>
+        <v>-0</v>
       </c>
       <c r="O22">
-        <v>69031</v>
+        <v>80473</v>
       </c>
       <c r="P22">
-        <v>308.2</v>
+        <v>359.3</v>
       </c>
       <c r="Q22">
-        <v>1476.2</v>
+        <v>1738.6</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -2919,37 +2919,37 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="U22">
-        <v>141</v>
+        <v>180.2</v>
       </c>
       <c r="V22">
-        <v>20884</v>
+        <v>24618</v>
       </c>
       <c r="W22">
         <v>224</v>
       </c>
       <c r="X22">
-        <v>496.6</v>
+        <v>583.1</v>
       </c>
       <c r="Y22">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z22">
-        <v>62.1</v>
+        <v>61.6</v>
       </c>
       <c r="AA22">
         <v>0.3</v>
       </c>
       <c r="AB22">
-        <v>68622</v>
+        <v>115450</v>
       </c>
       <c r="AC22">
-        <v>306.3</v>
+        <v>515.4</v>
       </c>
       <c r="AD22">
-        <v>488.3</v>
+        <v>695.8</v>
       </c>
       <c r="AE22">
         <v>0</v>
@@ -2958,28 +2958,28 @@
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AH22">
-        <v>492</v>
+        <v>752</v>
       </c>
       <c r="AI22">
-        <v>2322</v>
+        <v>4927</v>
       </c>
       <c r="AJ22">
         <v>224</v>
       </c>
       <c r="AK22">
-        <v>693.2</v>
+        <v>726.1</v>
       </c>
       <c r="AL22">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="AM22">
-        <v>44.2</v>
+        <v>71</v>
       </c>
       <c r="AN22">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="23" spans="1:40">
@@ -2987,13 +2987,13 @@
         <v>36</v>
       </c>
       <c r="B23">
-        <v>8943</v>
+        <v>10146</v>
       </c>
       <c r="C23">
-        <v>271</v>
+        <v>307.5</v>
       </c>
       <c r="D23">
-        <v>431.8</v>
+        <v>482.8</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3005,16 +3005,16 @@
         <v>4</v>
       </c>
       <c r="H23">
-        <v>468</v>
+        <v>551</v>
       </c>
       <c r="I23">
-        <v>1755</v>
+        <v>1786</v>
       </c>
       <c r="J23">
         <v>33</v>
       </c>
       <c r="K23">
-        <v>526.1</v>
+        <v>596.8</v>
       </c>
       <c r="L23">
         <v>17</v>
@@ -3026,13 +3026,13 @@
         <v>-0.9</v>
       </c>
       <c r="O23">
-        <v>1216</v>
+        <v>1391</v>
       </c>
       <c r="P23">
-        <v>36.8</v>
+        <v>42.2</v>
       </c>
       <c r="Q23">
-        <v>73.59999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -3041,37 +3041,37 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23">
         <v>47</v>
       </c>
       <c r="V23">
-        <v>341</v>
+        <v>439</v>
       </c>
       <c r="W23">
         <v>33</v>
       </c>
       <c r="X23">
-        <v>81.09999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="Y23">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z23">
-        <v>45.5</v>
+        <v>51.5</v>
       </c>
       <c r="AA23">
-        <v>-1.7</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>3826</v>
+        <v>7659</v>
       </c>
       <c r="AC23">
-        <v>115.9</v>
+        <v>232.1</v>
       </c>
       <c r="AD23">
-        <v>428.8</v>
+        <v>344.4</v>
       </c>
       <c r="AE23">
         <v>0</v>
@@ -3080,28 +3080,28 @@
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="AI23">
-        <v>2344</v>
+        <v>1213</v>
       </c>
       <c r="AJ23">
         <v>33</v>
       </c>
       <c r="AK23">
-        <v>765.2</v>
+        <v>383</v>
       </c>
       <c r="AL23">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AM23">
-        <v>15.2</v>
+        <v>60.6</v>
       </c>
       <c r="AN23">
-        <v>-2.1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:40">
@@ -3109,13 +3109,13 @@
         <v>37</v>
       </c>
       <c r="B24">
-        <v>237216</v>
+        <v>284004</v>
       </c>
       <c r="C24">
-        <v>712.4</v>
+        <v>852.9</v>
       </c>
       <c r="D24">
-        <v>1972.8</v>
+        <v>2421.4</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3124,37 +3124,37 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H24">
-        <v>666</v>
+        <v>755</v>
       </c>
       <c r="I24">
-        <v>18330</v>
+        <v>23112</v>
       </c>
       <c r="J24">
         <v>333</v>
       </c>
       <c r="K24">
-        <v>1198.1</v>
+        <v>1441.6</v>
       </c>
       <c r="L24">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M24">
-        <v>59.5</v>
+        <v>59.2</v>
       </c>
       <c r="N24">
         <v>0.1</v>
       </c>
       <c r="O24">
-        <v>99912</v>
+        <v>118657</v>
       </c>
       <c r="P24">
-        <v>300</v>
+        <v>356.3</v>
       </c>
       <c r="Q24">
-        <v>961</v>
+        <v>1155.3</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -3163,19 +3163,19 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U24">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="V24">
-        <v>7809</v>
+        <v>9950</v>
       </c>
       <c r="W24">
         <v>333</v>
       </c>
       <c r="X24">
-        <v>492.2</v>
+        <v>584.5</v>
       </c>
       <c r="Y24">
         <v>203</v>
@@ -3187,13 +3187,13 @@
         <v>0.2</v>
       </c>
       <c r="AB24">
-        <v>91108</v>
+        <v>138622</v>
       </c>
       <c r="AC24">
-        <v>273.6</v>
+        <v>416.3</v>
       </c>
       <c r="AD24">
-        <v>603.1</v>
+        <v>633.7</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -3202,28 +3202,28 @@
         <v>0</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="AH24">
-        <v>340</v>
+        <v>547</v>
       </c>
       <c r="AI24">
-        <v>6327</v>
+        <v>3346</v>
       </c>
       <c r="AJ24">
         <v>333</v>
       </c>
       <c r="AK24">
-        <v>785.4</v>
+        <v>657</v>
       </c>
       <c r="AL24">
-        <v>116</v>
+        <v>211</v>
       </c>
       <c r="AM24">
-        <v>34.8</v>
+        <v>63.4</v>
       </c>
       <c r="AN24">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
